--- a/Testdata/TC_40.xlsx
+++ b/Testdata/TC_40.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>BBoAAB+LCAAAAAAAAAOlGdtu48b1Vwg9tUAlkrLXsY1ZBrrZESpZhiTX67wUI3JsTT0iFXJoW28pkCBFmqIoik2RXtGnFAW6XbQJkO728i/B2rt96i/0zIVDUpKz1XZhrDnnNmfOnOsYvX0zY9YViRMahQ8rbs2pWCT0o4CGFw8rKT+vujuVtz3UufEJO8YxnhEOxBZwhcn+TUIfVqacz/dt+/r6una9VYviC7vuOK79qN8b+VMyw1UaJhyHPqkYruD1XBUPtYJZn3AcYI4V58NKd9SttQj12wDr4xBfkLjWTBMakiTphJxyShLBGRPMSavd/546mFev7dRcZK/Ac8pmSlmg6EqUCq7pYFsypjPi1R13t+rsVrfcsbO37+7ub+/UnO29dzNGQ4h6OOEjEl9RXwJGHM/mkt3Z3XKdPXd3ewfZa4lAVm4ADw1YMCRXNCFBizCWbGQRW19gw+dw6s2M6SC7wKsFvbkKhzGeT8eUM7KZGsN+05qFWpdciIcOopj4YL83UumIXA9ibdbxvAfY8ZTGfNHGi41lnSQkHsyFkTZj9VA7CnmDkZifzOGuSQCuAAiPxylB9j3InKlNEx++aZiSwDvHLCkylZDoNIovkzn2yRHEsS1kXIcswgE4HKcJp36SC1jBoOM4moNI2L0ZseAAxGbUazBGdjcEI4uNm1F0uSy+jETyXuUNw63OsJG/AkejaXQ9CNlilE4SP6YTErSbGfVaHBIhqblbacKjGWiRg5CCFSAL+AchuAxGbeLTGWbHDMyYeFsgpQRAjZRH55S3IpbOQmPPJSg6hRONyY05oVmjAVxvKKwehd0wo1eusBZVZhhG12bPVYQ0QgHcSHxzI6uYZeo2wLRPriLkjYhTHlAGFaJ4FwVo2StGU0L4WpdQGCSS4YGoOV6DMWTnSwR+Cc4NangOlI2q/Bk7zr78gW0NGnXC4H66DImO0tlgAgF8JQ/kuYBbAiE4AmsyHF4C9JTy6VEjU30NBqkD30u/ikMQqnOGFxJsjFKEoW7oszQgKgN0w3PpkUI3TX0vHq2AehDUHsLhYryYi0xg30PRJuc4ZVCcOOSQizw9LIFRI7lcpimC0EnMsgv2ROlPoPb7wazmQ3YU9a3mRzMBsKHkno6QXaQXKd4nnfCih8OLFJKoseMy3LiXCP9xjMNEHMfkzCVPW0+EsntRudxbvVxkL5GgMZnNoxizPtiEHqShLJW6FoBx+5hP9QqilhE/s6+dsxquslKZzq8jk+GnTiByezH8ClBJJRxedRgqmMswJM7YjwKo8ZjRSVxysLU4uKy88mWuJk63YRXM7A9dJiSW75KFaD3yhYYLf/XcDCFXqAUqeaPh9m79gbNVh6Qt1kieeEgwszrQf3JidcMrkvAZsO1bQ5LQAL4oZvvWO2RCKAS8NJEOuY25i3zoICbvpdBHL6QqDdC3DCkTQCq9oCFmq4QGkzN4ZwTHbFEgVEftRT7Q3f3oX7e/fvri2ed3Hz9+9eUH//n7L1/846e3Tz6Ej7u//PX2k1+oYypiNMYTRqRC4+burrO1DY5mQEinBijuQepzCTs7k8XerJHuWuWi1em2DntNmUsMMGMXjUQqgqGHF1GaL0fqEHIjeaV25gmKxBtnuUmvS9g2ERVeRaFoUK9ImbqIv49R2eLl889fPv/TvdzaYHldcff2HlTd+mvLDrT67gqdKTui8Vd9XTZWbFedB9V6vUC8RIOGMB1BG2fs1A08MUk49S3HNXk8MI68jmgZpSWN8YW9xKdArSgNebwwLlBcZ0jp+GMIEYNWoVBYaBf98sev/vy4RKWtqyFlKaBclMbKm+xsIUUfDcfWaHAybHWscWck/CTHFeiU8G8g1rubeCo5VRimmH0HZmIxEVsVaPYqVnRuEexPrQVEYiEOS862Dqo2ekORy1oexlE6VzdSYMihayhNNlnLsSbXSJy050rSyVFryJWut3/7Yh2DPoh2s5OQcjPcFWGohFGgAl5H7Wf/fPHVRy+ePbt7+rPbr35YkqD3MTMP+DlEU3Fp3B5Snq43SxB0OpLGvHS+X6gvGiiaxuOIhjzx3B3ZL+oVAlZXSJO/UXcGJU8KlvYC+BIEvYOTzg3Xge0dIbsMAD3nGKptlLfVBqByeG7Xf//mt3e/+uLu06evPvrj7cd/uP3k05fPf/fqye9V1N09fnr3kyc6yy8XAqmLaNZVA2jJ2c+3RDRaonZbX7//cyuMuAU9h5XKjPT1+58VhAlFZXeSS4Z2zihSVmGFtMgs+KyCKkaHEp9hUQ1AS5SwLUOhi1g0p36+ybtVIUrEnUR8qzuupgmxIminvg0nKRPnzP8rn2ZRJfX4Lafu1jVWaSOOMMFJwfSHLJpAk5Eh5Gy1RFLi+maGnFbud9gbNBu9nEQpMYgDGMUcMSCKD5T1lKKkdJNsZYaKHAJYaPz8lIlxeIVsFWUkF9KYrcfK80Yg0t/6saxEAaN5HKuGKNQPlaN0Dt0w1w3s/Xj5JlPof49Ur1rsiPN1t13Gw7qAhUJYRguAxMvUpFEqTXUTMcKqdvZImCZfAq70jgPm0G+RqtO6gr4ytkXe6cRxFK9NPjkmI+tDJw0Zxc4tbmjknaquO8jvKgNkCc98qKlPnzBqE0b4Zg91ds7dj67emBfuflPWbjJggTbmZqOHMUsuoPhaKRzl/32sVM7WiGNorMTbxsavi9nQOoRZd0Nt1FEko5gAYXf9/HdA44Q/EplAfynImYGcqQ71kRi41Idcn8l6p770IbV0u6RmFrpcvRlHrEdndMOx0MniuywEbDmfqxauu5mniNJyRG6gwSxIgKQ4+QGUDTHybCZNOSzkUsMv3mkSejHlmyr21gSTgEycqj8h9ep24OxW9wjZqrou/I/9et1xHohHHi0cMgcl1xtuYmcXlv8tx/sv+c5AVgQaAAA=</t>
+          <t>3BsAAB+LCAAAAAAAAAOlGdtu48b1Vwg9tUAlXqT12sYsA928ESrZhiXX67wUI3JkT02RCjm0rbcUaJEiTVEUxaZIr+hTigLdLtoESHd7+Zdg7d0+9Rd65sIhKcnZ0jUMmHNuc+bMuY7RO9fzwLgkcUKj8FHNblg1g4Re5NPw7FEtZbO6vVV7x0X9a48EhzjGc8KA2ACuMNm9Tuij2jlji13TvLq6alw1G1F8ZjqWZZtPRsOxd07muE7DhOHQIzXN5b+dq+airj8fEYZ9zLDkfFQbjAeNLqFeD2AjHOIzEjc6aUJDkiT9kFFGScI5Y4IZ6fZG35EHc53GVsNG5ho8p+ykNPAlXYlSwhUdbEsmdE5cx3KsurVdd1oT29ptbu+2Wg2r2XovY9SEaIgTNibxJfUEYMzwfCHYrW2nZVvN7VYLmRuJQFZuABcdBP4RuaQJ8bskCJJKFjHVBbY9BqeuZkwLmQVeJej+KjyO8eJ8QllAqrLvRTHxwFD32nufXB3Eyn6TxRCwk3Mas2UPLyvLOk5IfLDg1qjG6qJeFLJ2QGJ2vIBLJT7cOSBcFqcEmXcgc6YeTTz4pmFKfHeGg6TIVEKikyi+SBbYI/sQsCaXcRUGEfbBsxhNGPWSXMAaBh3G0QJEwu6dKPD3QGxGvQGjZQ9CMDLfuBNFF6viy0gkvED4A9zqHGv5a3A0Po+uDsJgOU6niRfTKfF7nYx6Iw7x2FPc3TRh0Ry0yEFIwgqQJfxArK2CUY94dI6DwwDMmLhNkFICoHbKohll3ShI56G25woUncCJJuRan1Cv0QFcb8itHoWDMKOXrrARVWY4iq70nusIYYQCuJ14+kbWMavUPYApn1xHiBvhp9yjAZSC4l0UoGWvGJ8Twja6hMQgnvX2eHFx20GAzHyJwC/BuUEN14L6UBe/E8vaFb+wrUajfujfTZch0X46P5hCAF+KA7k24FZACI4QdAIcXgD0hLLz/Xam+gYMkge+k34dhyBUFwFeCrA2ShGGBqEXpD6RGWAQzoRHct0U9Z14tAYaQlDzBEBmOA2gyDBIEWd59K+AUTu5WKUpgtBxHGT35/ISnkAN9/x5w4Pkx+tUw4vmHGBC6TwZI7NIzzO4R/rh2RCHZynkSG2mVbj2Hh7dkxiHCT+PTokrjrSZCGVml6naXb87ZK6QoAmZL6IYByOwCd1LQ1HyVKoHI44wO1crCMqAeAUDZ6yaq6xUpvPbyER0yRPw1F2MrgJUUHF/lp2CjNUyDPEzjiIfajUO6DQu+c9GHFxWXtgyT+Knq1jkMvtDtwh549tkyVuIfKHgk+WCuHaGECvUBZXc8VFr23lgNR3IyXyNxImPCA6MPvSRjBiD8JIkbA5su8YRSagPXxQHu8a7ZEooxLMwkYqoytxFPrQXk/dT6IeXQpU26FuGlAkgU57REAfrhBqTM7inBMfBskAojzqMPKC7/dG/bn79/NWLz24/evrmix/85++/fPWPn948+yF83P7lrzcf/0IeUxKjCZ4GRCg06WxvQyMKjqZBiBvXFFXdTz0mYKenopbrNVLdp1h0+4Pu42EHPKoAzNh5n5DyYBjiZZTmy7E8hNhIXKmZeYIkcSdCXr4uYXuEF3AZhbzRvCRl6iL+LkZpi9cvP3v98k93ciuD5WXD3tl5ULedt1YVx7LtNTpdVXgDL9s2NR7Yrbr1oO44BeIVGnQEUw50adpOA99t2taO5TQtO9MfYJkjbyJaRSlJE3xmrvBJUDdKQxYvtQsU1xlSOP4EQkSjZSgUFspFv/jxmz8/LVEp6ypIWQooF6Wx9CYzWwjR+0cTY3xwfNTtG5P+mPtJjivQSeFfQ6x21/FUcqowTHHwLZht+WRr1KCXqxnRzCDYOzeWEImFOCw52yao3OieIle1fBxH6ULeSIEhh26g1NlkI8eGXCNwwp5rSSdHbSCXut787fNNDOogys2OQ8rco1HHmIfaLwUMlTASVMCrqP30n6++/PDVixe3z3928+X3SxLUPnqkAT+HaCoutdtDylP1ZgWCTsbCmBfWdwv1RQF5T3gY0ZAlrr0l2kG1QsBqc2niLxrMoeQJwcJeAF+BoHdx0r9mKrDdfWSWAaDnAkO1jfKuWQNkDs/t+u/f/Pb2V5/ffvL8zYd/vPnoDzcff/L65e/ePPu9jLrbp89vf/JMZfnVQiB04b247AANMdp5Bo9Gg9du46sPfm6EETOg5zBSkZG++uDTgjCuqOhOcsnQzmlFyiqskRaZOZ9RUEXrUOLTLLIB6PIS1tQUqohFC+rlm7xX56J43AnENwaTepoQI4J26ptwkjJxzvy/8ikWWVIPH1qO7Sis1IYfYYqTgukfB9EUmowMIUanFZIS19cz5LRiv8fDg057mJNIJQ5iHyYti89//AMNkqyr1HNCDgEsNHteGvAJd41sHYWyr0LqMtWkOGv7POVtnrRKFDBtx7FsgkL1yDhOF9ABM9W03o0XzyyFnndf9qfFLjhfD3plPKwLWCh+ZTQHCLxIRwolU9Mg4VOpbGH3uWnyJeBKTzNgDvWOKLurS+glY5Pnmn4cR/HGhJNjMrIRdM+QRczc4prG5FvKTtvP7yoDZElOf/BeXefCqEcCwio/smXco+jy3rxw91VZB8lB4CtjVhs3tFlyAcWXRu4oVZVpxzG0TfxhovLT4JCGF4Nqp3f9h86MbHm+vfMQOx7ZaTlNb8ue+v7Maln4ITSOQigfP7kIPrnw2a3aJtAsltnzGfsIpu6K0qSBBSOfRcFSIiBVYtdrtEfjhD3hKUp9SciphpzK1vkJ109+iPWpKMTySz0/q83MktZZfmHyUToKhnROK86rVpaEykLADRYL2VtWvVCoefvkGjrfggTI1tPvQT3js1g1aTKqIMlr/kzWOJ1WFmdmzIeA5451P+6+D33Z/bnFAy8N/g8FROd1XxGDMKFn56zqvTo7O02yRZy6M/O8egsWdajG07qPZzu2Zc2a/gOHv80p4VAdKLmquAmvKTSBuaI6n7nyPzr3v7Y80rXcGwAA</t>
         </r>
       </text>
     </comment>
@@ -40,7 +40,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy"/>
-    <numFmt numFmtId="165" formatCode="###0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -522,4 +522,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>17</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Real Estate Investment: Residential: Hebei</Name>
+          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
+          <SeriesId>310902301</SeriesId>
+          <Code>SR4825032</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DCA20A3-0EF8-4C98-9CD8-77EE9F938309}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_40.xlsx
+++ b/Testdata/TC_40.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>3BsAAB+LCAAAAAAAAAOlGdtu48b1Vwg9tUAlXqT12sYsA928ESrZhiXX67wUI3JkT02RCjm0rbcUaJEiTVEUxaZIr+hTigLdLtoESHd7+Zdg7d0+9Rd65sIhKcnZ0jUMmHNuc+bMuY7RO9fzwLgkcUKj8FHNblg1g4Re5NPw7FEtZbO6vVV7x0X9a48EhzjGc8KA2ACuMNm9Tuij2jlji13TvLq6alw1G1F8ZjqWZZtPRsOxd07muE7DhOHQIzXN5b+dq+airj8fEYZ9zLDkfFQbjAeNLqFeD2AjHOIzEjc6aUJDkiT9kFFGScI5Y4IZ6fZG35EHc53GVsNG5ho8p+ykNPAlXYlSwhUdbEsmdE5cx3KsurVdd1oT29ptbu+2Wg2r2XovY9SEaIgTNibxJfUEYMzwfCHYrW2nZVvN7VYLmRuJQFZuABcdBP4RuaQJ8bskCJJKFjHVBbY9BqeuZkwLmQVeJej+KjyO8eJ8QllAqrLvRTHxwFD32nufXB3Eyn6TxRCwk3Mas2UPLyvLOk5IfLDg1qjG6qJeFLJ2QGJ2vIBLJT7cOSBcFqcEmXcgc6YeTTz4pmFKfHeGg6TIVEKikyi+SBbYI/sQsCaXcRUGEfbBsxhNGPWSXMAaBh3G0QJEwu6dKPD3QGxGvQGjZQ9CMDLfuBNFF6viy0gkvED4A9zqHGv5a3A0Po+uDsJgOU6niRfTKfF7nYx6Iw7x2FPc3TRh0Ry0yEFIwgqQJfxArK2CUY94dI6DwwDMmLhNkFICoHbKohll3ShI56G25woUncCJJuRan1Cv0QFcb8itHoWDMKOXrrARVWY4iq70nusIYYQCuJ14+kbWMavUPYApn1xHiBvhp9yjAZSC4l0UoGWvGJ8Twja6hMQgnvX2eHFx20GAzHyJwC/BuUEN14L6UBe/E8vaFb+wrUajfujfTZch0X46P5hCAF+KA7k24FZACI4QdAIcXgD0hLLz/Xam+gYMkge+k34dhyBUFwFeCrA2ShGGBqEXpD6RGWAQzoRHct0U9Z14tAYaQlDzBEBmOA2gyDBIEWd59K+AUTu5WKUpgtBxHGT35/ISnkAN9/x5w4Pkx+tUw4vmHGBC6TwZI7NIzzO4R/rh2RCHZynkSG2mVbj2Hh7dkxiHCT+PTokrjrSZCGVml6naXb87ZK6QoAmZL6IYByOwCd1LQ1HyVKoHI44wO1crCMqAeAUDZ6yaq6xUpvPbyER0yRPw1F2MrgJUUHF/lp2CjNUyDPEzjiIfajUO6DQu+c9GHFxWXtgyT+Knq1jkMvtDtwh549tkyVuIfKHgk+WCuHaGECvUBZXc8VFr23lgNR3IyXyNxImPCA6MPvSRjBiD8JIkbA5su8YRSagPXxQHu8a7ZEooxLMwkYqoytxFPrQXk/dT6IeXQpU26FuGlAkgU57REAfrhBqTM7inBMfBskAojzqMPKC7/dG/bn79/NWLz24/evrmix/85++/fPWPn948+yF83P7lrzcf/0IeUxKjCZ4GRCg06WxvQyMKjqZBiBvXFFXdTz0mYKenopbrNVLdp1h0+4Pu42EHPKoAzNh5n5DyYBjiZZTmy7E8hNhIXKmZeYIkcSdCXr4uYXuEF3AZhbzRvCRl6iL+LkZpi9cvP3v98k93ciuD5WXD3tl5ULedt1YVx7LtNTpdVXgDL9s2NR7Yrbr1oO44BeIVGnQEUw50adpOA99t2taO5TQtO9MfYJkjbyJaRSlJE3xmrvBJUDdKQxYvtQsU1xlSOP4EQkSjZSgUFspFv/jxmz8/LVEp6ypIWQooF6Wx9CYzWwjR+0cTY3xwfNTtG5P+mPtJjivQSeFfQ6x21/FUcqowTHHwLZht+WRr1KCXqxnRzCDYOzeWEImFOCw52yao3OieIle1fBxH6ULeSIEhh26g1NlkI8eGXCNwwp5rSSdHbSCXut787fNNDOogys2OQ8rco1HHmIfaLwUMlTASVMCrqP30n6++/PDVixe3z3928+X3SxLUPnqkAT+HaCoutdtDylP1ZgWCTsbCmBfWdwv1RQF5T3gY0ZAlrr0l2kG1QsBqc2niLxrMoeQJwcJeAF+BoHdx0r9mKrDdfWSWAaDnAkO1jfKuWQNkDs/t+u/f/Pb2V5/ffvL8zYd/vPnoDzcff/L65e/ePPu9jLrbp89vf/JMZfnVQiB04b247AANMdp5Bo9Gg9du46sPfm6EETOg5zBSkZG++uDTgjCuqOhOcsnQzmlFyiqskRaZOZ9RUEXrUOLTLLIB6PIS1tQUqohFC+rlm7xX56J43AnENwaTepoQI4J26ptwkjJxzvy/8ikWWVIPH1qO7Sis1IYfYYqTgukfB9EUmowMIUanFZIS19cz5LRiv8fDg057mJNIJQ5iHyYti89//AMNkqyr1HNCDgEsNHteGvAJd41sHYWyr0LqMtWkOGv7POVtnrRKFDBtx7FsgkL1yDhOF9ABM9W03o0XzyyFnndf9qfFLjhfD3plPKwLWCh+ZTQHCLxIRwolU9Mg4VOpbGH3uWnyJeBKTzNgDvWOKLurS+glY5Pnmn4cR/HGhJNjMrIRdM+QRczc4prG5FvKTtvP7yoDZElOf/BeXefCqEcCwio/smXco+jy3rxw91VZB8lB4CtjVhs3tFlyAcWXRu4oVZVpxzG0TfxhovLT4JCGF4Nqp3f9h86MbHm+vfMQOx7ZaTlNb8ue+v7Maln4ITSOQigfP7kIPrnw2a3aJtAsltnzGfsIpu6K0qSBBSOfRcFSIiBVYtdrtEfjhD3hKUp9SciphpzK1vkJ109+iPWpKMTySz0/q83MktZZfmHyUToKhnROK86rVpaEykLADRYL2VtWvVCoefvkGjrfggTI1tPvQT3js1g1aTKqIMlr/kzWOJ1WFmdmzIeA5451P+6+D33Z/bnFAy8N/g8FROd1XxGDMKFn56zqvTo7O02yRZy6M/O8egsWdajG07qPZzu2Zc2a/gOHv80p4VAdKLmquAmvKTSBuaI6n7nyPzr3v7Y80rXcGwAA</t>
+          <t>BBoAAB+LCAAAAAAAAAOlGdtu48b1Vwg9tUAlkrLXsY1ZBrrZESpZhiTX67wUI3JsTT0iFXJoW28pkCBFmqIoik2RXtGnFAW6XbQJkO728i/B2rt96i/0zIVDUpKz1XZhrDnnNmfOnOsYvX0zY9YViRMahQ8rbs2pWCT0o4CGFw8rKT+vujuVtz3UufEJO8YxnhEOxBZwhcn+TUIfVqacz/dt+/r6una9VYviC7vuOK79qN8b+VMyw1UaJhyHPqkYruD1XBUPtYJZn3AcYI4V58NKd9SttQj12wDr4xBfkLjWTBMakiTphJxyShLBGRPMSavd/546mFev7dRcZK/Ac8pmSlmg6EqUCq7pYFsypjPi1R13t+rsVrfcsbO37+7ub+/UnO29dzNGQ4h6OOEjEl9RXwJGHM/mkt3Z3XKdPXd3ewfZa4lAVm4ADw1YMCRXNCFBizCWbGQRW19gw+dw6s2M6SC7wKsFvbkKhzGeT8eUM7KZGsN+05qFWpdciIcOopj4YL83UumIXA9ibdbxvAfY8ZTGfNHGi41lnSQkHsyFkTZj9VA7CnmDkZifzOGuSQCuAAiPxylB9j3InKlNEx++aZiSwDvHLCkylZDoNIovkzn2yRHEsS1kXIcswgE4HKcJp36SC1jBoOM4moNI2L0ZseAAxGbUazBGdjcEI4uNm1F0uSy+jETyXuUNw63OsJG/AkejaXQ9CNlilE4SP6YTErSbGfVaHBIhqblbacKjGWiRg5CCFSAL+AchuAxGbeLTGWbHDMyYeFsgpQRAjZRH55S3IpbOQmPPJSg6hRONyY05oVmjAVxvKKwehd0wo1eusBZVZhhG12bPVYQ0QgHcSHxzI6uYZeo2wLRPriLkjYhTHlAGFaJ4FwVo2StGU0L4WpdQGCSS4YGoOV6DMWTnSwR+Cc4NangOlI2q/Bk7zr78gW0NGnXC4H66DImO0tlgAgF8JQ/kuYBbAiE4AmsyHF4C9JTy6VEjU30NBqkD30u/ikMQqnOGFxJsjFKEoW7oszQgKgN0w3PpkUI3TX0vHq2AehDUHsLhYryYi0xg30PRJuc4ZVCcOOSQizw9LIFRI7lcpimC0EnMsgv2ROlPoPb7wazmQ3YU9a3mRzMBsKHkno6QXaQXKd4nnfCih8OLFJKoseMy3LiXCP9xjMNEHMfkzCVPW0+EsntRudxbvVxkL5GgMZnNoxizPtiEHqShLJW6FoBx+5hP9QqilhE/s6+dsxquslKZzq8jk+GnTiByezH8ClBJJRxedRgqmMswJM7YjwKo8ZjRSVxysLU4uKy88mWuJk63YRXM7A9dJiSW75KFaD3yhYYLf/XcDCFXqAUqeaPh9m79gbNVh6Qt1kieeEgwszrQf3JidcMrkvAZsO1bQ5LQAL4oZvvWO2RCKAS8NJEOuY25i3zoICbvpdBHL6QqDdC3DCkTQCq9oCFmq4QGkzN4ZwTHbFEgVEftRT7Q3f3oX7e/fvri2ed3Hz9+9eUH//n7L1/846e3Tz6Ej7u//PX2k1+oYypiNMYTRqRC4+burrO1DY5mQEinBijuQepzCTs7k8XerJHuWuWi1em2DntNmUsMMGMXjUQqgqGHF1GaL0fqEHIjeaV25gmKxBtnuUmvS9g2ERVeRaFoUK9ImbqIv49R2eLl889fPv/TvdzaYHldcff2HlTd+mvLDrT67gqdKTui8Vd9XTZWbFedB9V6vUC8RIOGMB1BG2fs1A08MUk49S3HNXk8MI68jmgZpSWN8YW9xKdArSgNebwwLlBcZ0jp+GMIEYNWoVBYaBf98sev/vy4RKWtqyFlKaBclMbKm+xsIUUfDcfWaHAybHWscWck/CTHFeiU8G8g1rubeCo5VRimmH0HZmIxEVsVaPYqVnRuEexPrQVEYiEOS862Dqo2ekORy1oexlE6VzdSYMihayhNNlnLsSbXSJy050rSyVFryJWut3/7Yh2DPoh2s5OQcjPcFWGohFGgAl5H7Wf/fPHVRy+ePbt7+rPbr35YkqD3MTMP+DlEU3Fp3B5Snq43SxB0OpLGvHS+X6gvGiiaxuOIhjzx3B3ZL+oVAlZXSJO/UXcGJU8KlvYC+BIEvYOTzg3Xge0dIbsMAD3nGKptlLfVBqByeG7Xf//mt3e/+uLu06evPvrj7cd/uP3k05fPf/fqye9V1N09fnr3kyc6yy8XAqmLaNZVA2jJ2c+3RDRaonZbX7//cyuMuAU9h5XKjPT1+58VhAlFZXeSS4Z2zihSVmGFtMgs+KyCKkaHEp9hUQ1AS5SwLUOhi1g0p36+ybtVIUrEnUR8qzuupgmxIminvg0nKRPnzP8rn2ZRJfX4Lafu1jVWaSOOMMFJwfSHLJpAk5Eh5Gy1RFLi+maGnFbud9gbNBu9nEQpMYgDGMUcMSCKD5T1lKKkdJNsZYaKHAJYaPz8lIlxeIVsFWUkF9KYrcfK80Yg0t/6saxEAaN5HKuGKNQPlaN0Dt0w1w3s/Xj5JlPof49Ur1rsiPN1t13Gw7qAhUJYRguAxMvUpFEqTXUTMcKqdvZImCZfAq70jgPm0G+RqtO6gr4ytkXe6cRxFK9NPjkmI+tDJw0Zxc4tbmjknaquO8jvKgNkCc98qKlPnzBqE0b4Zg91ds7dj67emBfuflPWbjJggTbmZqOHMUsuoPhaKRzl/32sVM7WiGNorMTbxsavi9nQOoRZd0Nt1FEko5gAYXf9/HdA44Q/EplAfynImYGcqQ71kRi41Idcn8l6p770IbV0u6RmFrpcvRlHrEdndMOx0MniuywEbDmfqxauu5mniNJyRG6gwSxIgKQ4+QGUDTHybCZNOSzkUsMv3mkSejHlmyr21gSTgEycqj8h9ep24OxW9wjZqrou/I/9et1xHohHHi0cMgcl1xtuYmcXlv8tx/sv+c5AVgQaAAA=</t>
         </r>
       </text>
     </comment>
@@ -40,7 +40,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="###0.000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -522,37 +522,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>17</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Real Estate Investment: Residential: Hebei</Name>
-          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
-          <SeriesId>310902301</SeriesId>
-          <Code>SR4825032</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DCA20A3-0EF8-4C98-9CD8-77EE9F938309}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>